--- a/ui/对应表.xlsx
+++ b/ui/对应表.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>随机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸡窝4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企鹅冰1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,14 +241,22 @@
   </si>
   <si>
     <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡窝3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镂空格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,11 +308,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -418,6 +426,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,14 +602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -614,47 +623,47 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -693,9 +702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -734,9 +743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -775,9 +784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -789,10 +798,13 @@
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>3</v>
@@ -819,9 +831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -863,9 +875,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -880,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>5</v>
@@ -907,24 +919,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
@@ -951,30 +963,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
@@ -1006,32 +1018,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ui/对应表.xlsx
+++ b/ui/对应表.xlsx
@@ -273,12 +273,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,11 +301,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,82 +633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
+      <c r="D1" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -707,37 +674,43 @@
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1</v>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
@@ -748,37 +721,37 @@
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>0</v>
@@ -789,43 +762,37 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>0</v>
@@ -836,40 +803,43 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>0</v>
@@ -880,40 +850,40 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>0</v>
@@ -924,93 +894,157 @@
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ui/对应表.xlsx
+++ b/ui/对应表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>随机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,17 +627,17 @@
     <col min="8" max="8" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="13" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D1" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -669,7 +669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
@@ -709,14 +709,11 @@
       <c r="O3" s="1">
         <v>5</v>
       </c>
-      <c r="P3" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -751,13 +748,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -792,13 +786,10 @@
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -839,13 +830,10 @@
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -883,13 +871,10 @@
         <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -909,31 +894,28 @@
         <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
@@ -953,31 +935,28 @@
         <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1021,13 +1000,10 @@
         <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>0</v>
       </c>
